--- a/data/categorias_productos.xlsx
+++ b/data/categorias_productos.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Catalogo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Juguetes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
